--- a/Design/classes.xlsx
+++ b/Design/classes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhao\Documents\SCSU2014FallLenovo\531\project\design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhao\Documents\GitHub\Pizza\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Classes</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>ManageService</t>
+  </si>
+  <si>
+    <t>UserInterface</t>
   </si>
 </sst>
 </file>
@@ -156,11 +159,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,7 +447,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,222 +459,224 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Design/classes.xlsx
+++ b/Design/classes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Classes</t>
   </si>
@@ -89,16 +89,25 @@
     <t>ProviderReport</t>
   </si>
   <si>
-    <t>MemberReportList</t>
-  </si>
-  <si>
-    <t>ProviderReportList</t>
-  </si>
-  <si>
     <t>ManageService</t>
   </si>
   <si>
     <t>UserInterface</t>
+  </si>
+  <si>
+    <t>ManageAccount</t>
+  </si>
+  <si>
+    <t>EFTReport</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>ReportSchedule</t>
+  </si>
+  <si>
+    <t>ScheduleList</t>
   </si>
 </sst>
 </file>
@@ -447,14 +456,14 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.44140625" customWidth="1"/>
     <col min="2" max="2" width="24.21875" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -485,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -499,13 +508,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -513,19 +522,21 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
@@ -537,10 +548,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -549,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -559,7 +570,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -569,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -579,7 +590,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -589,7 +600,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -599,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -609,7 +620,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -619,26 +630,33 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
